--- a/format.xlsx
+++ b/format.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\betin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertosandoval/Documents/Comp Sci/Work Scripts/RosterScript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6F161FB-231F-4ADD-9FF1-2E9E00FEF43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798E2BD6-F0AB-8345-B7BB-91C499479A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="2535" windowWidth="38790" windowHeight="15555" xr2:uid="{56CF35C3-DA91-4384-91DE-3BE0A8F0CBCB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{56CF35C3-DA91-4384-91DE-3BE0A8F0CBCB}"/>
   </bookViews>
   <sheets>
     <sheet name="format" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -605,9 +601,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,6 +626,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1013,12 +1009,12 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection sqref="A1:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
       <c r="B1" s="12"/>
       <c r="C1" s="1"/>
@@ -1027,12 +1023,12 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1042,7 +1038,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -1054,193 +1050,193 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="17"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="17"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="17"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="17"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="17"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="17"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="17"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="17"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="17"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="17"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="17"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="21"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
